--- a/biweekly_timedoc.xlsx
+++ b/biweekly_timedoc.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Documents\GitHub\timesheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7680" windowHeight="9120" tabRatio="503"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="7680" windowHeight="9120" tabRatio="503"/>
   </bookViews>
   <sheets>
     <sheet name="Biweekly" sheetId="1" r:id="rId1"/>
@@ -161,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -220,6 +225,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -716,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,15 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,15 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -806,14 +798,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -838,34 +824,55 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -877,6 +884,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1319,80 +1329,80 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="9" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="9" width="5.33203125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="15" width="5.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" customWidth="1"/>
+    <col min="11" max="15" width="5.33203125" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="65"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="65"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="47" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="53"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="53"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="N3" s="47" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
+      <c r="N3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="52"/>
-    </row>
-    <row r="4" spans="1:17" ht="5.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="44"/>
+    </row>
+    <row r="4" spans="1:17" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1411,31 +1421,31 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-    </row>
-    <row r="6" spans="1:17" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+    </row>
+    <row r="6" spans="1:17" ht="9.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="D6" s="55"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1450,28 +1460,28 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-    </row>
-    <row r="8" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+    </row>
+    <row r="8" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1490,28 +1500,28 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63"/>
-    </row>
-    <row r="10" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+    </row>
+    <row r="10" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="7"/>
@@ -1530,55 +1540,55 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="60"/>
-    </row>
-    <row r="12" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
+    </row>
+    <row r="12" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -1607,11 +1617,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="13" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="9.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="9.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1673,11 +1683,11 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1693,11 +1703,11 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1713,11 +1723,11 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1733,11 +1743,11 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1753,11 +1763,11 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -1773,11 +1783,11 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1793,11 +1803,11 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1813,7 +1823,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -1829,8 +1839,8 @@
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+    <row r="25" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="19"/>
@@ -1850,8 +1860,8 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1866,67 +1876,67 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:17" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-      <c r="K28" s="29" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+      <c r="K28" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42" t="s">
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="25" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27" t="s">
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="Q29" s="28" t="s">
+      <c r="Q29" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -1973,8 +1983,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="9.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="9.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1992,7 +2002,7 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2010,7 +2020,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2028,7 +2038,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2046,7 +2056,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2064,7 +2074,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2082,7 +2092,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2100,7 +2110,7 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2118,7 +2128,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2136,7 +2146,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -2152,8 +2162,8 @@
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+    <row r="42" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="19"/>
@@ -2173,29 +2183,29 @@
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
     </row>
-    <row r="43" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="43" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2204,7 +2214,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2221,7 +2231,7 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>19</v>
       </c>
@@ -2244,39 +2254,39 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:17" ht="11.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="34"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:17" ht="11.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="35"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="29"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -2291,21 +2301,21 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="36"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q50" s="30"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="35"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="35"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -2320,10 +2330,10 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="36"/>
-    </row>
-    <row r="52" spans="1:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="Q51" s="30"/>
+    </row>
+    <row r="52" spans="1:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -2339,11 +2349,19 @@
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
-      <c r="Q52" s="38"/>
-    </row>
-    <row r="53" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="Q52" s="32"/>
+    </row>
+    <row r="53" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
+    <mergeCell ref="A44:Q44"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="K28:Q28"/>
     <mergeCell ref="I9:Q9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="N2:Q2"/>
